--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sito/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishida/Projects/nebill/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44720" yWindow="3240" windowWidth="17260" windowHeight="14980"/>
+    <workbookView xWindow="44720" yWindow="3020" windowWidth="17260" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
@@ -35,18 +35,12 @@
     <t>[Time.zone.today]</t>
   </si>
   <si>
-    <t>[project_key]</t>
-  </si>
-  <si>
     <t>[project_name]</t>
   </si>
   <si>
     <t>[project_period]</t>
   </si>
   <si>
-    <t>[bill_key]</t>
-  </si>
-  <si>
     <t>[bill_payment_on]</t>
   </si>
   <si>
@@ -63,6 +57,14 @@
   </si>
   <si>
     <t>[total]</t>
+  </si>
+  <si>
+    <t>[project_cd]</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>[bill_cd]</t>
+    <phoneticPr fontId="16"/>
   </si>
 </sst>
 </file>
@@ -880,27 +882,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
@@ -910,27 +912,27 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishida/Projects/nebill/spec/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamashita/Desktop/nebill/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44720" yWindow="3020" windowWidth="17260" windowHeight="14980"/>
+    <workbookView xWindow="11540" yWindow="1960" windowWidth="17260" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>[project_period]</t>
   </si>
   <si>
-    <t>[bill_payment_on]</t>
-  </si>
-  <si>
     <t>[excess]</t>
   </si>
   <si>
@@ -64,6 +61,10 @@
   </si>
   <si>
     <t>[bill_cd]</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>[bill_payment_type]</t>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -870,7 +871,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -882,7 +883,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -897,12 +898,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
@@ -912,27 +913,27 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamashita/Desktop/nebill/spec/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="1960" windowWidth="17260" windowHeight="14980"/>
+    <workbookView xWindow="700" yWindow="1080" windowWidth="17260" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>[bill_amount]</t>
   </si>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>[bill_payment_type]</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>[bill_company_name]</t>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -868,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -936,6 +940,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
